--- a/src/main/webapp/uploadFiles/file/Hypothesis.xlsx
+++ b/src/main/webapp/uploadFiles/file/Hypothesis.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liuzengzhen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VG967GM\Documents\Adocument\EY\2020MID\TINA修改需求\HIVE系统2020年更新内容总结\基础信息表和底稿导入表修改\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC08ACE-D0E6-46D2-84BB-07C7F517D18B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="2" r:id="rId1"/>
@@ -24,13 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>基金ID</t>
-  </si>
-  <si>
-    <t>编码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
@@ -41,15 +38,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>利率/其他价格</t>
+    <t>编码</t>
+  </si>
+  <si>
+    <t>假设具体内容</t>
+  </si>
+  <si>
+    <t>&lt; Text &gt;</t>
+  </si>
+  <si>
+    <t>本基金本类型下的顺序编码（如：1，2）</t>
+  </si>
+  <si>
+    <t>&lt; Number &gt;</t>
+  </si>
+  <si>
+    <t>F519937-01</t>
+  </si>
+  <si>
+    <t>其他价格</t>
+  </si>
+  <si>
+    <t>在95%的置信区间内，基金资产组合的市场价格风险。</t>
+  </si>
+  <si>
+    <t>F720001-01</t>
+  </si>
+  <si>
+    <t>业绩比较基准的变动对基金的净值表现具有对称性影响。</t>
+  </si>
+  <si>
+    <t>利率风险假设还是其他价格风险假设
+（利率/其他价格/外汇）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,25 +94,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="黑体"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,16 +135,43 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -126,7 +187,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -387,37 +448,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="23" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
